--- a/Scrum Board.xlsx
+++ b/Scrum Board.xlsx
@@ -28,31 +28,31 @@
     <t>DONE</t>
   </si>
   <si>
-    <t>Setup the GanttProject. This includes forking the repository from GitHub</t>
+    <t>(ID: 'A') Setup the GanttProject. This includes forking the repository from GitHub</t>
   </si>
   <si>
     <t>Create Fork</t>
   </si>
   <si>
-    <t>Identify pinpoint code smells used to design this tool</t>
+    <t>(ID: 'B') Identify pinpoint code smells used to design this tool</t>
   </si>
   <si>
     <t>Clone the project.</t>
   </si>
   <si>
-    <t>Identify GoF Design patterns used to design this tool</t>
+    <t>(ID: 'C') Identify GoF Design patterns used to design this tool</t>
   </si>
   <si>
     <t>Everyone checks three code smells.</t>
   </si>
   <si>
-    <t>Each team member should review three other colleague´s code smells.</t>
+    <t>(ID: 'D') Each team member should review three other colleague´s code smells.</t>
   </si>
   <si>
     <t>Everyone checks three design patterns.</t>
   </si>
   <si>
-    <t>Each team member should review three other colleague´s design patterns.</t>
+    <t>(ID: 'E') Each team member should review three other colleague´s design patterns.</t>
   </si>
   <si>
     <t>Everyone reviews three code smells from another colleague.</t>
@@ -426,10 +426,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="7"/>
+      <c r="H16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="8"/>
       <c r="J16" s="8"/>
     </row>
     <row r="19">
@@ -515,41 +515,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:I6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I6"/>
-    <mergeCell ref="H7:I9"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D4:E6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="H10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="H13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="H16:I18"/>
-    <mergeCell ref="H19:I21"/>
-    <mergeCell ref="H10:I12"/>
-    <mergeCell ref="H13:I15"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="J7:K9"/>
     <mergeCell ref="J16:K18"/>
-    <mergeCell ref="J19:K21"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="F10:G12"/>
-    <mergeCell ref="F13:G15"/>
-    <mergeCell ref="F19:G21"/>
-    <mergeCell ref="B10:C12"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C6"/>
     <mergeCell ref="B7:C9"/>
-    <mergeCell ref="D10:E12"/>
-    <mergeCell ref="D13:E15"/>
-    <mergeCell ref="D16:E18"/>
-    <mergeCell ref="D19:E21"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E6"/>
     <mergeCell ref="D7:E9"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G6"/>
     <mergeCell ref="F7:G9"/>
-    <mergeCell ref="F16:G18"/>
+    <mergeCell ref="H7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:C12"/>
     <mergeCell ref="B16:C18"/>
     <mergeCell ref="B19:C21"/>
+    <mergeCell ref="D19:E21"/>
+    <mergeCell ref="F19:G21"/>
+    <mergeCell ref="H19:I21"/>
+    <mergeCell ref="J19:K21"/>
+    <mergeCell ref="F16:G18"/>
+    <mergeCell ref="D10:E12"/>
+    <mergeCell ref="F10:G12"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="D13:E15"/>
+    <mergeCell ref="F13:G15"/>
+    <mergeCell ref="D16:E18"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Scrum Board.xlsx
+++ b/Scrum Board.xlsx
@@ -435,10 +435,10 @@
     <row r="19">
       <c r="B19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="5"/>
+      <c r="H19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="6"/>
       <c r="J19" s="6"/>
     </row>
     <row r="22">
@@ -543,13 +543,13 @@
     <mergeCell ref="F19:G21"/>
     <mergeCell ref="H19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="F16:G18"/>
     <mergeCell ref="D10:E12"/>
     <mergeCell ref="F10:G12"/>
     <mergeCell ref="B13:C15"/>
     <mergeCell ref="D13:E15"/>
     <mergeCell ref="F13:G15"/>
     <mergeCell ref="D16:E18"/>
+    <mergeCell ref="F16:G18"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Scrum Board.xlsx
+++ b/Scrum Board.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -28,37 +28,49 @@
     <t>DONE</t>
   </si>
   <si>
-    <t>(ID: 'A') Setup the GanttProject. This includes forking the repository from GitHub</t>
-  </si>
-  <si>
-    <t>Create Fork</t>
-  </si>
-  <si>
-    <t>(ID: 'B') Identify pinpoint code smells used to design this tool</t>
-  </si>
-  <si>
-    <t>Clone the project.</t>
-  </si>
-  <si>
-    <t>(ID: 'C') Identify GoF Design patterns used to design this tool</t>
-  </si>
-  <si>
-    <t>Everyone checks three code smells.</t>
-  </si>
-  <si>
-    <t>(ID: 'D') Each team member should review three other colleague´s code smells.</t>
-  </si>
-  <si>
-    <t>Everyone checks three design patterns.</t>
-  </si>
-  <si>
-    <t>(ID: 'E') Each team member should review three other colleague´s design patterns.</t>
-  </si>
-  <si>
-    <t>Everyone reviews three code smells from another colleague.</t>
-  </si>
-  <si>
-    <t>Everyone reviews three  design patterns from another colleague.</t>
+    <t>(ID: 'A') "Setup the GanttProject. This includes forking the repository from GitHub"</t>
+  </si>
+  <si>
+    <t>(US ID: '1') Create Fork</t>
+  </si>
+  <si>
+    <t>(US ID: '2') Clone the project.</t>
+  </si>
+  <si>
+    <t>(ID: 'B') "Identify pinpoint code smells used to design this tool"</t>
+  </si>
+  <si>
+    <t>(US ID: '3') Everyone checks three code smells.</t>
+  </si>
+  <si>
+    <t>(ID: 'C') "Identify GoF Design patterns used to design this tool"</t>
+  </si>
+  <si>
+    <t>(US ID: '4') Everyone checks three design patterns.</t>
+  </si>
+  <si>
+    <t>(ID: 'D') "Each team member should review three other colleague´s code smells."</t>
+  </si>
+  <si>
+    <t>(US ID: '5') Everyone reviews three code smells from another colleague.</t>
+  </si>
+  <si>
+    <t>(ID: 'E') "Each team member should review three other colleague´s design patterns."</t>
+  </si>
+  <si>
+    <t>(US ID: '6') Everyone reviews three  design patterns from another colleague.</t>
+  </si>
+  <si>
+    <t>(ID: 'F') "Please submit a single pdf file containing your report on the first phase"</t>
+  </si>
+  <si>
+    <t>(US ID: '7') Create pdf report and submit</t>
+  </si>
+  <si>
+    <t>(ID: 'G') "Project delivery is to be done via GitHub"</t>
+  </si>
+  <si>
+    <t>(US ID: '8') Check project's specifications and submit</t>
   </si>
 </sst>
 </file>
@@ -98,14 +110,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -125,24 +137,24 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,51 +401,50 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="D7" s="5"/>
       <c r="F7" s="6"/>
       <c r="H7" s="6"/>
       <c r="J7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="8"/>
       <c r="F10" s="8"/>
       <c r="H10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="8"/>
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="6"/>
       <c r="F13" s="6"/>
       <c r="H13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="6"/>
     </row>
     <row r="16">
       <c r="B16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="8"/>
       <c r="F16" s="7"/>
       <c r="H16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="6"/>
       <c r="D19" s="6"/>
       <c r="F19" s="5"/>
       <c r="H19" s="5" t="s">
@@ -442,79 +453,41 @@
       <c r="J19" s="6"/>
     </row>
     <row r="22">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="B22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="B25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="44">
     <mergeCell ref="F4:G6"/>
     <mergeCell ref="H4:I6"/>
     <mergeCell ref="B3:C3"/>
@@ -524,32 +497,41 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="D4:E6"/>
     <mergeCell ref="J4:K6"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="J16:K18"/>
+    <mergeCell ref="H13:I15"/>
     <mergeCell ref="H10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="H13:I15"/>
-    <mergeCell ref="J13:K15"/>
     <mergeCell ref="H16:I18"/>
-    <mergeCell ref="J16:K18"/>
-    <mergeCell ref="B4:C6"/>
-    <mergeCell ref="B7:C9"/>
     <mergeCell ref="D7:E9"/>
     <mergeCell ref="F7:G9"/>
     <mergeCell ref="H7:I9"/>
     <mergeCell ref="J7:K9"/>
+    <mergeCell ref="F10:G12"/>
     <mergeCell ref="B10:C12"/>
-    <mergeCell ref="B16:C18"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="D19:E21"/>
-    <mergeCell ref="F19:G21"/>
-    <mergeCell ref="H19:I21"/>
-    <mergeCell ref="J19:K21"/>
+    <mergeCell ref="B4:C9"/>
     <mergeCell ref="D10:E12"/>
-    <mergeCell ref="F10:G12"/>
-    <mergeCell ref="B13:C15"/>
     <mergeCell ref="D13:E15"/>
-    <mergeCell ref="F13:G15"/>
     <mergeCell ref="D16:E18"/>
     <mergeCell ref="F16:G18"/>
+    <mergeCell ref="F13:G15"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="B16:C18"/>
+    <mergeCell ref="J19:K21"/>
+    <mergeCell ref="F19:G21"/>
+    <mergeCell ref="D19:E21"/>
+    <mergeCell ref="H19:I21"/>
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="F25:G27"/>
+    <mergeCell ref="H25:I27"/>
+    <mergeCell ref="J22:K24"/>
+    <mergeCell ref="H22:I24"/>
+    <mergeCell ref="D22:E24"/>
+    <mergeCell ref="F22:G24"/>
+    <mergeCell ref="B25:C27"/>
+    <mergeCell ref="B22:C24"/>
+    <mergeCell ref="D25:E27"/>
+    <mergeCell ref="J25:K27"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Scrum Board.xlsx
+++ b/Scrum Board.xlsx
@@ -414,10 +414,10 @@
       </c>
       <c r="D10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="7"/>
+      <c r="J10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="8"/>
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
@@ -425,10 +425,10 @@
       </c>
       <c r="D13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="5"/>
+      <c r="J13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="6"/>
     </row>
     <row r="16">
       <c r="B16" s="7" t="s">
@@ -436,10 +436,10 @@
       </c>
       <c r="D16" s="8"/>
       <c r="F16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="7"/>
+      <c r="J16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="8"/>
     </row>
     <row r="19">
       <c r="B19" s="5" t="s">
@@ -450,28 +450,28 @@
       <c r="H19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="6"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="22">
       <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="7"/>
+      <c r="F22" s="8"/>
+      <c r="H22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="H22" s="8"/>
       <c r="J22" s="8"/>
     </row>
     <row r="25">
       <c r="B25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="H25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="H25" s="6"/>
       <c r="J25" s="6"/>
     </row>
     <row r="28">
@@ -495,43 +495,43 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="D4:E6"/>
+    <mergeCell ref="B4:C9"/>
     <mergeCell ref="J4:K6"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="F13:G15"/>
+    <mergeCell ref="F16:G18"/>
+    <mergeCell ref="H16:I18"/>
     <mergeCell ref="J16:K18"/>
-    <mergeCell ref="H13:I15"/>
-    <mergeCell ref="H10:I12"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="D7:E9"/>
+    <mergeCell ref="F19:G21"/>
+    <mergeCell ref="H19:I21"/>
+    <mergeCell ref="J19:K21"/>
     <mergeCell ref="F7:G9"/>
     <mergeCell ref="H7:I9"/>
-    <mergeCell ref="J7:K9"/>
     <mergeCell ref="F10:G12"/>
+    <mergeCell ref="H10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="H13:I15"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="B16:C18"/>
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="B22:C24"/>
+    <mergeCell ref="B25:C27"/>
+    <mergeCell ref="D4:E6"/>
+    <mergeCell ref="D7:E9"/>
     <mergeCell ref="B10:C12"/>
-    <mergeCell ref="B4:C9"/>
     <mergeCell ref="D10:E12"/>
+    <mergeCell ref="B13:C15"/>
     <mergeCell ref="D13:E15"/>
     <mergeCell ref="D16:E18"/>
-    <mergeCell ref="F16:G18"/>
-    <mergeCell ref="F13:G15"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="B16:C18"/>
-    <mergeCell ref="J19:K21"/>
-    <mergeCell ref="F19:G21"/>
+    <mergeCell ref="H25:I27"/>
+    <mergeCell ref="J25:K27"/>
     <mergeCell ref="D19:E21"/>
-    <mergeCell ref="H19:I21"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="F25:G27"/>
-    <mergeCell ref="H25:I27"/>
-    <mergeCell ref="J22:K24"/>
-    <mergeCell ref="H22:I24"/>
     <mergeCell ref="D22:E24"/>
     <mergeCell ref="F22:G24"/>
-    <mergeCell ref="B25:C27"/>
-    <mergeCell ref="B22:C24"/>
+    <mergeCell ref="H22:I24"/>
+    <mergeCell ref="J22:K24"/>
     <mergeCell ref="D25:E27"/>
-    <mergeCell ref="J25:K27"/>
+    <mergeCell ref="F25:G27"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Scrum Board.xlsx
+++ b/Scrum Board.xlsx
@@ -447,10 +447,10 @@
       </c>
       <c r="D19" s="6"/>
       <c r="F19" s="5"/>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="5"/>
+      <c r="J19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="5"/>
     </row>
     <row r="22">
       <c r="B22" s="7" t="s">
@@ -458,10 +458,10 @@
       </c>
       <c r="D22" s="7"/>
       <c r="F22" s="8"/>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="7"/>
+      <c r="J22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="8"/>
     </row>
     <row r="25">
       <c r="B25" s="5" t="s">
@@ -469,10 +469,10 @@
       </c>
       <c r="D25" s="5"/>
       <c r="F25" s="6"/>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="5"/>
+      <c r="J25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="6"/>
     </row>
     <row r="28">
       <c r="B28" s="9"/>
